--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2592.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2592.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.78810312236688</v>
+        <v>1.676915526390076</v>
       </c>
       <c r="B1">
-        <v>1.342148295136532</v>
+        <v>2.823069095611572</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>5.8324294090271</v>
       </c>
       <c r="D1">
-        <v>2.413032166500476</v>
+        <v>2.308043956756592</v>
       </c>
       <c r="E1">
-        <v>0.9846969470377632</v>
+        <v>0.8184143900871277</v>
       </c>
     </row>
   </sheetData>
